--- a/document-database.xlsx
+++ b/document-database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workspace\shop_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D71DECF-4EC1-47E9-9AEE-A3C584428910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A975D63-3B57-458A-A3E0-3816BCE01CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,13 @@
     <sheet name="Update Note" sheetId="1" r:id="rId1"/>
     <sheet name="Data Validation" sheetId="6" r:id="rId2"/>
     <sheet name="Table List" sheetId="10" r:id="rId3"/>
-    <sheet name="Template" sheetId="3" r:id="rId4"/>
-    <sheet name="Triggers" sheetId="4" r:id="rId5"/>
+    <sheet name="Trigger List" sheetId="14" r:id="rId4"/>
+    <sheet name="Table Template" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Table List'!$C$6:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Trigger List'!$C$6:$F$37</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Table Name</t>
   </si>
@@ -133,21 +137,6 @@
   </si>
   <si>
     <t>The table list</t>
-  </si>
-  <si>
-    <t>Create at Version</t>
-  </si>
-  <si>
-    <t>Creation Date</t>
-  </si>
-  <si>
-    <t>Updation Date</t>
-  </si>
-  <si>
-    <t>Update at Version</t>
-  </si>
-  <si>
-    <t>Updation Note</t>
   </si>
   <si>
     <t>version-1.0.1</t>
@@ -179,6 +168,37 @@
 - Table List
 - TableTemplate
 - Triggers</t>
+  </si>
+  <si>
+    <t>The trigger list</t>
+  </si>
+  <si>
+    <t>Trigger Name</t>
+  </si>
+  <si>
+    <t>Affected table</t>
+  </si>
+  <si>
+    <t>Create/Update at Version</t>
+  </si>
+  <si>
+    <t>Creation/Updation Date</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>- Change name Template to Table Template, Triggers to Trigger List</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Trigger List
+- Table Template</t>
   </si>
 </sst>
 </file>
@@ -188,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +282,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -288,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -665,12 +693,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -718,6 +784,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,6 +796,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -742,6 +814,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -769,43 +844,67 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,7 +941,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1122,704 +1222,744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:Q35"/>
+  <dimension ref="C2:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="30" t="s">
+    <row r="2" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="32"/>
-    </row>
-    <row r="4" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
-    </row>
-    <row r="6" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="36" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="38"/>
+    </row>
+    <row r="6" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="36" t="s">
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="36"/>
-    </row>
-    <row r="7" spans="3:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="25">
+      <c r="R6" s="39"/>
+    </row>
+    <row r="7" spans="3:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27">
         <v>45918</v>
       </c>
-      <c r="Q7" s="26"/>
-    </row>
-    <row r="8" spans="3:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="26"/>
-    </row>
-    <row r="9" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
-    </row>
-    <row r="10" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="26"/>
-    </row>
-    <row r="11" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="26"/>
-    </row>
-    <row r="12" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="26"/>
-    </row>
-    <row r="13" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
-    </row>
-    <row r="14" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="26"/>
-    </row>
-    <row r="15" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="26"/>
-    </row>
-    <row r="16" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26"/>
-    </row>
-    <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
-    </row>
-    <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="26"/>
-    </row>
-    <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="26"/>
-    </row>
-    <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="26"/>
-    </row>
-    <row r="21" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="26"/>
-    </row>
-    <row r="22" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="26"/>
-    </row>
-    <row r="23" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="26"/>
-    </row>
-    <row r="24" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="26"/>
-    </row>
-    <row r="25" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="26"/>
-    </row>
-    <row r="26" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="26"/>
-    </row>
-    <row r="27" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-    </row>
-    <row r="28" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="26"/>
-    </row>
-    <row r="29" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
-    </row>
-    <row r="30" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="26"/>
-    </row>
-    <row r="31" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26"/>
-    </row>
-    <row r="32" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="26"/>
-    </row>
-    <row r="33" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-    </row>
-    <row r="34" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="26"/>
-    </row>
-    <row r="35" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
+      <c r="R7" s="28"/>
+    </row>
+    <row r="8" spans="3:18" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="31"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="27">
+        <v>45919</v>
+      </c>
+      <c r="R8" s="28"/>
+    </row>
+    <row r="9" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="28"/>
+    </row>
+    <row r="10" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="28"/>
+    </row>
+    <row r="11" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="28"/>
+    </row>
+    <row r="12" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="28"/>
+    </row>
+    <row r="13" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
+    </row>
+    <row r="14" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="28"/>
+    </row>
+    <row r="15" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28"/>
+    </row>
+    <row r="16" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="28"/>
+    </row>
+    <row r="17" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28"/>
+    </row>
+    <row r="18" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="28"/>
+    </row>
+    <row r="19" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="28"/>
+    </row>
+    <row r="20" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="28"/>
+    </row>
+    <row r="21" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="28"/>
+    </row>
+    <row r="22" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="28"/>
+    </row>
+    <row r="23" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="28"/>
+    </row>
+    <row r="24" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="28"/>
+    </row>
+    <row r="25" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="28"/>
+    </row>
+    <row r="26" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="28"/>
+    </row>
+    <row r="27" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
+    </row>
+    <row r="28" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="28"/>
+    </row>
+    <row r="29" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="28"/>
+    </row>
+    <row r="30" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="28"/>
+    </row>
+    <row r="31" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="28"/>
+    </row>
+    <row r="32" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="28"/>
+    </row>
+    <row r="33" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="28"/>
+    </row>
+    <row r="34" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="28"/>
+    </row>
+    <row r="35" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="C3:Q4"/>
+    <mergeCell ref="C3:R4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:R6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:R14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:R15"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:R12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:R19"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:R16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:R17"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:R22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:R23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:R21"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:R26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:R24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="Q25:R25"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:R30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:R31"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="Q28:R28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:R29"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:R34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:R35"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:R32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:R33"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P6" xr:uid="{F2AC8215-DEA5-4497-94E5-6C35232022A3}">
-      <formula1>$P$4:$P$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q6" xr:uid="{F2AC8215-DEA5-4497-94E5-6C35232022A3}">
+      <formula1>$Q$4:$Q$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1840,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652D78E4-E672-41DE-A972-843006DE75DA}">
-  <dimension ref="B1:H14"/>
+  <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,10 +1992,11 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
@@ -1868,8 +2009,11 @@
       <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
@@ -1877,11 +2021,14 @@
         <v>19</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
@@ -1889,55 +2036,58 @@
         <v>20</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="12"/>
       <c r="F8" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1946,27 +2096,793 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C06135B-DD53-45AA-AE11-15DC8243BE3B}">
-  <dimension ref="C2:U37"/>
+  <dimension ref="C2:T37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+      <selection activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="7" max="12" width="10" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="U2" s="20"/>
-    </row>
-    <row r="3" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T2" s="20"/>
+    </row>
+    <row r="3" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="49" t="s">
         <v>30</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="T3" s="20"/>
+    </row>
+    <row r="4" spans="3:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="T4" s="19"/>
+    </row>
+    <row r="5" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="53"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
+    </row>
+    <row r="7" spans="3:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+    </row>
+    <row r="8" spans="3:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="3:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+    </row>
+    <row r="10" spans="3:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+    </row>
+    <row r="11" spans="3:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="12" spans="3:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+    </row>
+    <row r="13" spans="3:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="43"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+    </row>
+    <row r="14" spans="3:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+    </row>
+    <row r="15" spans="3:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="43"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" spans="3:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="43"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+    </row>
+    <row r="17" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="43"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+    </row>
+    <row r="18" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="43"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+    </row>
+    <row r="19" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="43"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+    </row>
+    <row r="20" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="43"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+    </row>
+    <row r="21" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+    </row>
+    <row r="22" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+    </row>
+    <row r="23" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+    </row>
+    <row r="24" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+    </row>
+    <row r="25" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+    </row>
+    <row r="26" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+    </row>
+    <row r="27" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+    </row>
+    <row r="28" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+    </row>
+    <row r="29" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+    </row>
+    <row r="30" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+    </row>
+    <row r="31" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+    </row>
+    <row r="32" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+    </row>
+    <row r="33" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+    </row>
+    <row r="34" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+    </row>
+    <row r="35" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+    </row>
+    <row r="36" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+    </row>
+    <row r="37" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C6:F37" xr:uid="{3C06135B-DD53-45AA-AE11-15DC8243BE3B}">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="129">
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="C3:Q4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="N34:Q34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD129759-DFDA-495B-87BA-C1ACB6E2E80A}">
+          <x14:formula1>
+            <xm:f>'Data Validation'!$F$3:$F$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>J7:L37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FAF5125B-B526-40C3-B544-B016EDA6CC44}">
+          <x14:formula1>
+            <xm:f>'Data Validation'!$J$3:$J$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>M7:M37</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A019F7C9-7248-48EF-9C13-5C07BB6887CE}">
+  <dimension ref="C2:AC37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="12" width="8.5703125" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AC2" s="20"/>
+    </row>
+    <row r="3" spans="3:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="49" t="s">
+        <v>40</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -1983,9 +2899,17 @@
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
       <c r="R3" s="49"/>
-      <c r="U3" s="20"/>
-    </row>
-    <row r="4" spans="3:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AC3" s="20"/>
+    </row>
+    <row r="4" spans="3:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -2002,802 +2926,1038 @@
       <c r="P4" s="49"/>
       <c r="Q4" s="49"/>
       <c r="R4" s="49"/>
-      <c r="U4" s="19"/>
-    </row>
-    <row r="5" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="3:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="42"/>
-    </row>
-    <row r="7" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-    </row>
-    <row r="8" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="45"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AC4" s="19"/>
+    </row>
+    <row r="5" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="53"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="52"/>
+    </row>
+    <row r="7" spans="3:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+    </row>
+    <row r="8" spans="3:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="43"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="22"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-    </row>
-    <row r="9" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-    </row>
-    <row r="10" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-    </row>
-    <row r="11" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+    </row>
+    <row r="9" spans="3:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+    </row>
+    <row r="10" spans="3:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+    </row>
+    <row r="11" spans="3:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="46"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="22"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-    </row>
-    <row r="12" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+    </row>
+    <row r="12" spans="3:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-    </row>
-    <row r="13" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="45"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+    </row>
+    <row r="13" spans="3:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="43"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="46"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="22"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-    </row>
-    <row r="14" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+    </row>
+    <row r="14" spans="3:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="46"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="22"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-    </row>
-    <row r="15" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="45"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+    </row>
+    <row r="15" spans="3:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="43"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-    </row>
-    <row r="16" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="45"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+    </row>
+    <row r="16" spans="3:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="43"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-    </row>
-    <row r="17" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="45"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+    </row>
+    <row r="17" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="43"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-    </row>
-    <row r="18" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="45"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+    </row>
+    <row r="18" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="43"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-    </row>
-    <row r="19" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="45"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+    </row>
+    <row r="19" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="43"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-    </row>
-    <row r="20" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="45"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+    </row>
+    <row r="20" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="43"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-    </row>
-    <row r="21" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+    </row>
+    <row r="21" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-    </row>
-    <row r="22" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+    </row>
+    <row r="22" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="44"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-    </row>
-    <row r="23" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+    </row>
+    <row r="23" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="44"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-    </row>
-    <row r="24" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+    </row>
+    <row r="24" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="44"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-    </row>
-    <row r="25" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+    </row>
+    <row r="25" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-    </row>
-    <row r="26" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+    </row>
+    <row r="26" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
       <c r="J26" s="22"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-    </row>
-    <row r="27" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+    </row>
+    <row r="27" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="22"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-    </row>
-    <row r="28" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+    </row>
+    <row r="28" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
       <c r="J28" s="22"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-    </row>
-    <row r="29" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+    </row>
+    <row r="29" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
       <c r="J29" s="22"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-    </row>
-    <row r="30" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+    </row>
+    <row r="30" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
       <c r="J30" s="22"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-    </row>
-    <row r="31" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+    </row>
+    <row r="31" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
       <c r="J31" s="22"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-    </row>
-    <row r="32" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+    </row>
+    <row r="32" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
       <c r="J32" s="22"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-    </row>
-    <row r="33" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+    </row>
+    <row r="33" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
       <c r="J33" s="22"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-    </row>
-    <row r="34" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+    </row>
+    <row r="34" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
       <c r="J34" s="22"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-    </row>
-    <row r="35" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+    </row>
+    <row r="35" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
       <c r="J35" s="22"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-    </row>
-    <row r="36" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+    </row>
+    <row r="36" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
       <c r="J36" s="22"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-    </row>
-    <row r="37" spans="3:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+    </row>
+    <row r="37" spans="3:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="22"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="193">
-    <mergeCell ref="C3:R4"/>
+  <autoFilter ref="C6:F37" xr:uid="{A019F7C9-7248-48EF-9C13-5C07BB6887CE}">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="161">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="Q7:Z7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="C3:Z4"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="Q6:Z6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="Q9:Z9"/>
+    <mergeCell ref="M9:P9"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="Q8:Z8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="M11:P11"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="Q13:Z13"/>
+    <mergeCell ref="M13:P13"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="Q15:Z15"/>
+    <mergeCell ref="M15:P15"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="Q14:Z14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="Q17:Z17"/>
+    <mergeCell ref="M17:P17"/>
     <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="Q16:Z16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="Q19:Z19"/>
+    <mergeCell ref="M19:P19"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="Q20:Z20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="Q23:Z23"/>
+    <mergeCell ref="M23:P23"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="Q22:Z22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="Q25:Z25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="Q24:Z24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="Q27:Z27"/>
+    <mergeCell ref="M27:P27"/>
     <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="Q26:Z26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="Q29:Z29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="Q28:Z28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="Q31:Z31"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="Q30:Z30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="Q33:Z33"/>
+    <mergeCell ref="M33:P33"/>
     <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="M32:P32"/>
     <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="Q35:Z35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="Q34:Z34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="M37:P37"/>
     <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="M36:P36"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD129759-DFDA-495B-87BA-C1ACB6E2E80A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F045252E-E215-4D83-B75F-1D8F8E16B611}">
           <x14:formula1>
             <xm:f>'Data Validation'!$F$3:$F$9</xm:f>
           </x14:formula1>
-          <xm:sqref>I7:J37 M7:N37</xm:sqref>
+          <xm:sqref>J7:L37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2805,7 +3965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1D47FE-ED29-4B3A-BE4A-FC8849AC7952}">
   <dimension ref="B1:P35"/>
   <sheetViews>
@@ -2840,10 +4000,10 @@
       <c r="N1"/>
     </row>
     <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="7"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -2856,8 +4016,8 @@
       <c r="N2"/>
     </row>
     <row r="3" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="7"/>
       <c r="F3"/>
       <c r="G3"/>
@@ -2906,42 +4066,42 @@
       <c r="N6"/>
     </row>
     <row r="7" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="F7" s="67"/>
+      <c r="G7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="54" t="s">
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="57" t="s">
+      <c r="P7" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
@@ -2972,8 +4132,8 @@
       <c r="N8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="55"/>
-      <c r="P8" s="58"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="69"/>
     </row>
     <row r="9" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -3527,16 +4687,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A11875-50F3-47B2-8494-4B5C37D6B355}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>